--- a/data/financial_statements/sofp/KIM.xlsx
+++ b/data/financial_statements/sofp/KIM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,144 +583,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>123531000</v>
+        <v>124000000</v>
       </c>
       <c r="C2">
-        <v>296798000</v>
+        <v>297000000</v>
       </c>
       <c r="D2">
-        <v>370318000</v>
+        <v>370000000</v>
       </c>
       <c r="E2">
-        <v>334663000</v>
+        <v>335000000</v>
       </c>
       <c r="F2">
-        <v>483471000</v>
+        <v>483000000</v>
       </c>
       <c r="G2">
         <v>230062000</v>
@@ -715,8 +826,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>393418000</v>
@@ -837,23 +948,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>14754580000</v>
+        <v>135000000</v>
       </c>
       <c r="C4">
-        <v>14843360000</v>
+        <v>144000000</v>
       </c>
       <c r="D4">
-        <v>14956060000</v>
+        <v>146000000</v>
       </c>
       <c r="E4">
-        <v>15041570000</v>
+        <v>147000000</v>
       </c>
       <c r="F4">
-        <v>14783980000</v>
+        <v>149000000</v>
       </c>
       <c r="G4">
         <v>9269214000</v>
@@ -959,8 +1070,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E5">
         <v>18000000</v>
@@ -973,23 +1084,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2632140000</v>
+        <v>541000000</v>
       </c>
       <c r="C6">
-        <v>2653182000</v>
+        <v>496000000</v>
       </c>
       <c r="D6">
-        <v>2817729000</v>
+        <v>469000000</v>
       </c>
       <c r="E6">
-        <v>2680829000</v>
+        <v>361000000</v>
       </c>
       <c r="F6">
-        <v>2938781000</v>
+        <v>511000000</v>
       </c>
       <c r="G6">
         <v>1759601000</v>
@@ -1095,8 +1206,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>17386720000</v>
@@ -1217,23 +1328,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>17915570000</v>
+        <v>17916000000</v>
       </c>
       <c r="C8">
-        <v>18197570000</v>
+        <v>18198000000</v>
       </c>
       <c r="D8">
-        <v>18543580000</v>
+        <v>18544000000</v>
       </c>
       <c r="E8">
-        <v>18459200000</v>
+        <v>18459000000</v>
       </c>
       <c r="F8">
-        <v>18590520000</v>
+        <v>18591000000</v>
       </c>
       <c r="G8">
         <v>11558920000</v>
@@ -1339,8 +1450,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E9">
         <v>220308000</v>
@@ -1383,8 +1494,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C10">
         <v>291000000</v>
@@ -1415,8 +1526,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E11">
         <v>220308000</v>
@@ -1447,23 +1558,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>7210121000</v>
+        <v>7325000000</v>
       </c>
       <c r="C12">
-        <v>7403105000</v>
+        <v>7234000000</v>
       </c>
       <c r="D12">
-        <v>7489448000</v>
+        <v>7279000000</v>
       </c>
       <c r="E12">
-        <v>7475702000</v>
+        <v>7012000000</v>
       </c>
       <c r="F12">
-        <v>7516681000</v>
+        <v>7642000000</v>
       </c>
       <c r="G12">
         <v>5215505000</v>
@@ -1569,16 +1680,16 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>13270000</v>
@@ -1699,23 +1810,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>737407000</v>
+        <v>737000000</v>
       </c>
       <c r="C15">
-        <v>688023000</v>
+        <v>688000000</v>
       </c>
       <c r="D15">
-        <v>702876000</v>
+        <v>703000000</v>
       </c>
       <c r="E15">
-        <v>736056000</v>
+        <v>391000000</v>
       </c>
       <c r="F15">
-        <v>777617000</v>
+        <v>778000000</v>
       </c>
       <c r="G15">
         <v>460926000</v>
@@ -1821,8 +1932,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>7960798000</v>
@@ -1943,23 +2054,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>8075721000</v>
+        <v>8062000000</v>
       </c>
       <c r="C17">
-        <v>8225832000</v>
+        <v>8213000000</v>
       </c>
       <c r="D17">
-        <v>8328419000</v>
+        <v>8315000000</v>
       </c>
       <c r="E17">
-        <v>8349017000</v>
+        <v>8336000000</v>
       </c>
       <c r="F17">
-        <v>8435097000</v>
+        <v>8419000000</v>
       </c>
       <c r="G17">
         <v>5786707000</v>
@@ -2065,8 +2176,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>9611382000</v>
@@ -2187,8 +2298,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>19000</v>
@@ -2309,23 +2420,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>6185000</v>
+        <v>6000000</v>
       </c>
       <c r="C20">
-        <v>6185000</v>
+        <v>6000000</v>
       </c>
       <c r="D20">
-        <v>6180000</v>
+        <v>6000000</v>
       </c>
       <c r="E20">
-        <v>6167000</v>
+        <v>6000000</v>
       </c>
       <c r="F20">
-        <v>6164000</v>
+        <v>6000000</v>
       </c>
       <c r="G20">
         <v>4335000</v>
@@ -2431,23 +2542,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>78790000</v>
+        <v>79000000</v>
       </c>
       <c r="C21">
-        <v>163210000</v>
+        <v>163000000</v>
       </c>
       <c r="D21">
-        <v>412659000</v>
+        <v>413000000</v>
       </c>
       <c r="E21">
-        <v>299115000</v>
+        <v>299000000</v>
       </c>
       <c r="F21">
-        <v>328609000</v>
+        <v>329000000</v>
       </c>
       <c r="G21">
         <v>-68265000</v>
@@ -2553,23 +2664,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>9839829000</v>
+        <v>9703000000</v>
       </c>
       <c r="C22">
-        <v>9971717000</v>
+        <v>9781000000</v>
       </c>
       <c r="D22">
-        <v>10215140000</v>
+        <v>10011000000</v>
       </c>
       <c r="E22">
-        <v>10110160000</v>
+        <v>9899000000</v>
       </c>
       <c r="F22">
-        <v>10155400000</v>
+        <v>9914000000</v>
       </c>
       <c r="G22">
         <v>5772195000</v>
@@ -2675,23 +2786,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>9839848000</v>
+        <v>9703000000</v>
       </c>
       <c r="C23">
-        <v>9971737000</v>
+        <v>9781000000</v>
       </c>
       <c r="D23">
-        <v>10215160000</v>
+        <v>10011000000</v>
       </c>
       <c r="E23">
-        <v>10110180000</v>
+        <v>9899000000</v>
       </c>
       <c r="F23">
-        <v>10155420000</v>
+        <v>9914000000</v>
       </c>
       <c r="G23">
         <v>5772215000</v>
@@ -2797,8 +2908,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>17915570000</v>
@@ -2919,8 +3030,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>618463000</v>
@@ -3041,8 +3152,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>19000</v>
@@ -3160,8 +3271,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>9839848000</v>
@@ -3282,23 +3393,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>7086590000</v>
+        <v>7201000000</v>
       </c>
       <c r="C28">
-        <v>7397307000</v>
+        <v>7228000000</v>
       </c>
       <c r="D28">
-        <v>7453130000</v>
+        <v>7243000000</v>
       </c>
       <c r="E28">
-        <v>8065039000</v>
+        <v>7601000000</v>
       </c>
       <c r="F28">
-        <v>14936210000</v>
+        <v>15062000000</v>
       </c>
       <c r="G28">
         <v>4985443000</v>
@@ -3404,23 +3515,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>7210121000</v>
+        <v>7325000000</v>
       </c>
       <c r="C29">
-        <v>7694105000</v>
+        <v>7525000000</v>
       </c>
       <c r="D29">
-        <v>7823448000</v>
+        <v>7613000000</v>
       </c>
       <c r="E29">
-        <v>8399702000</v>
+        <v>7936000000</v>
       </c>
       <c r="F29">
-        <v>15419681000</v>
+        <v>15545000000</v>
       </c>
       <c r="G29">
         <v>5215505000</v>
